--- a/biology/Zoologie/Farancia/Farancia.xlsx
+++ b/biology/Zoologie/Farancia/Farancia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Farancia est un genre de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farancia est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de la moitié Est des États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de la moitié Est des États-Unis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces serpents atteignent de 75 à 135 cm de long. Ce sont des reptiles brun sombre ou noirs, le dessous étant rouge-orange clair. Le dos présente généralement des lignes longitudinales rouges.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents semi-aquatiques, et ils consomment divers amphibiens et autres animaux aquatiques.
 </t>
@@ -604,7 +622,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction débute au début du printemps, et la ponte a lieu au début de l'été. Les œufs incubent 2 à 3 mois.
 </t>
@@ -635,9 +655,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2013)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2013) :
 Farancia abacura (Holbrook, 1836)
 Farancia erytrogramma (Palissot De Beauvois, 1802)</t>
         </is>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gray, 1842 : Monographic Synopsis of the Water Snakes, or the Family of Hydridae. The Zoological Miscellany, vol. 2, p. 59-68 (texte intégral).</t>
         </is>
